--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.266046586924124E-15</v>
+        <v>8.811544254521116E-08</v>
       </c>
       <c r="E2">
-        <v>2.266046586924124E-15</v>
+        <v>8.811544254521116E-08</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.6328540608985E-09</v>
+        <v>3.568688884333009E-08</v>
       </c>
       <c r="E3">
-        <v>2.6328540608985E-09</v>
+        <v>3.568688884333009E-08</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.989171660148324E-34</v>
+        <v>1.31491455725481E-34</v>
       </c>
       <c r="E4">
-        <v>2.989171660148324E-34</v>
+        <v>1.31491455725481E-34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.755469996613509E-32</v>
+        <v>1.110744401486915E-56</v>
       </c>
       <c r="E5">
-        <v>2.755469996613509E-32</v>
+        <v>1.110744401486915E-56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.105675054827475E-08</v>
+        <v>1.183103460400268E-10</v>
       </c>
       <c r="E6">
-        <v>1.105675054827475E-08</v>
+        <v>1.183103460400268E-10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999991956128</v>
+        <v>0.9999999999954301</v>
       </c>
       <c r="E7">
-        <v>8.043872234964056E-10</v>
+        <v>4.569900013962069E-12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.988319850812815E-10</v>
+        <v>1.777229895013519E-12</v>
       </c>
       <c r="E8">
-        <v>0.999999999401168</v>
+        <v>0.9999999999982228</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08373876241348345</v>
+        <v>3.805269517419362E-11</v>
       </c>
       <c r="E9">
-        <v>0.9162612375865166</v>
+        <v>0.9999999999619473</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9741542570653482</v>
+        <v>0.9999986531823306</v>
       </c>
       <c r="E10">
-        <v>0.02584574293465181</v>
+        <v>1.346817669389822E-06</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.237153728992472E-10</v>
+        <v>3.141077440158784E-10</v>
       </c>
       <c r="E11">
-        <v>0.9999999996762846</v>
+        <v>0.9999999996858923</v>
       </c>
       <c r="F11">
-        <v>4.559343338012695</v>
+        <v>7.292929649353027</v>
       </c>
       <c r="G11">
         <v>0.7</v>
